--- a/JupyterNotebooks/AveragedIntensites/ShearF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/ShearF-HW20.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="ShearF-HW20.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="ShearF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -964,7 +964,7 @@
         <v>1.001377398684539</v>
       </c>
       <c r="H13">
-        <v>0.9940111371242356</v>
+        <v>0.9940111371242357</v>
       </c>
       <c r="I13">
         <v>0.9979539706978038</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.9963501058113639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9957675914803306</v>
+      </c>
+      <c r="D16">
+        <v>1.64344820480699</v>
+      </c>
+      <c r="E16">
+        <v>0.8079618251480029</v>
+      </c>
+      <c r="F16">
+        <v>0.9957675914803306</v>
+      </c>
+      <c r="G16">
+        <v>1.280637724328747</v>
+      </c>
+      <c r="H16">
+        <v>0.6227848949555937</v>
+      </c>
+      <c r="I16">
+        <v>0.8534831158739909</v>
+      </c>
+      <c r="J16">
+        <v>1.64344820480699</v>
+      </c>
+      <c r="K16">
+        <v>1.225705014977496</v>
+      </c>
+      <c r="L16">
+        <v>1.110736303228913</v>
+      </c>
+      <c r="M16">
+        <v>1.034013892765609</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/ShearF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/ShearF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9957675914803306</v>

--- a/JupyterNotebooks/AveragedIntensites/ShearF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/ShearF-HW20.xlsx
@@ -967,7 +967,7 @@
         <v>1.001377398684539</v>
       </c>
       <c r="H13">
-        <v>0.9940111371242357</v>
+        <v>0.9940111371242356</v>
       </c>
       <c r="I13">
         <v>0.9979539706978038</v>

--- a/JupyterNotebooks/AveragedIntensites/ShearF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/ShearF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4098799999999996</v>
+        <v>0.9957675914803306</v>
       </c>
       <c r="D10">
-        <v>2.676939999999998</v>
+        <v>1.64344820480699</v>
       </c>
       <c r="E10">
-        <v>0.7655640000000008</v>
+        <v>0.8079618251480029</v>
       </c>
       <c r="F10">
-        <v>0.4098799999999996</v>
+        <v>0.9957675914803306</v>
       </c>
       <c r="G10">
-        <v>1.660747999999999</v>
+        <v>1.280637724328747</v>
       </c>
       <c r="H10">
-        <v>0.6905200000000008</v>
+        <v>0.6227848949555937</v>
       </c>
       <c r="I10">
-        <v>0.6622120000000002</v>
+        <v>0.8534831158739909</v>
       </c>
       <c r="J10">
-        <v>2.676939999999998</v>
+        <v>1.64344820480699</v>
       </c>
       <c r="K10">
-        <v>1.721251999999999</v>
+        <v>1.225705014977496</v>
       </c>
       <c r="L10">
-        <v>1.065566</v>
+        <v>1.110736303228913</v>
       </c>
       <c r="M10">
-        <v>1.144310666666666</v>
+        <v>1.034013892765609</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.21</v>
+        <v>0.8975375014975679</v>
       </c>
       <c r="D11">
-        <v>3.943749999999998</v>
+        <v>0.8374910580626224</v>
       </c>
       <c r="E11">
-        <v>0.4708249999999997</v>
+        <v>1.121766438130974</v>
       </c>
       <c r="F11">
-        <v>0.21</v>
+        <v>0.8975375014975679</v>
       </c>
       <c r="G11">
-        <v>2.226525000000006</v>
+        <v>0.8199329255432229</v>
       </c>
       <c r="H11">
-        <v>0.09</v>
+        <v>1.442477600609227</v>
       </c>
       <c r="I11">
-        <v>0.3901374999999999</v>
+        <v>1.058724039811315</v>
       </c>
       <c r="J11">
-        <v>3.943749999999998</v>
+        <v>0.8374910580626224</v>
       </c>
       <c r="K11">
-        <v>2.207287499999999</v>
+        <v>0.9796287480967982</v>
       </c>
       <c r="L11">
-        <v>1.208643749999999</v>
+        <v>0.938583124797183</v>
       </c>
       <c r="M11">
-        <v>1.221872916666667</v>
+        <v>1.029654927275822</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.5393775075328011</v>
+        <v>0.8948746221079933</v>
       </c>
       <c r="D12">
-        <v>2.7075072709632</v>
+        <v>0.8389305430304193</v>
       </c>
       <c r="E12">
-        <v>0.6887782353920021</v>
+        <v>1.122371592385798</v>
       </c>
       <c r="F12">
-        <v>0.5393775075328011</v>
+        <v>0.8948746221079933</v>
       </c>
       <c r="G12">
-        <v>1.709626449715204</v>
+        <v>0.8205575977721106</v>
       </c>
       <c r="H12">
-        <v>0.4657496401920017</v>
+        <v>1.443725677226456</v>
       </c>
       <c r="I12">
-        <v>0.647105608806401</v>
+        <v>1.058460214958077</v>
       </c>
       <c r="J12">
-        <v>2.7075072709632</v>
+        <v>0.8389305430304193</v>
       </c>
       <c r="K12">
-        <v>1.698142753177601</v>
+        <v>0.9806510677081085</v>
       </c>
       <c r="L12">
-        <v>1.118760130355201</v>
+        <v>0.9377628449080508</v>
       </c>
       <c r="M12">
-        <v>1.126357452100268</v>
+        <v>1.029820041246809</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.002369906619044</v>
+        <v>0.8971629001993532</v>
       </c>
       <c r="D13">
-        <v>0.9968323812379528</v>
+        <v>0.8375597116533459</v>
       </c>
       <c r="E13">
-        <v>0.9974942986440674</v>
+        <v>1.121725022241705</v>
       </c>
       <c r="F13">
-        <v>1.002369906619044</v>
+        <v>0.8971629001993532</v>
       </c>
       <c r="G13">
-        <v>1.001377398684539</v>
+        <v>0.8201396728133163</v>
       </c>
       <c r="H13">
-        <v>0.9940111371242356</v>
+        <v>1.441948916796041</v>
       </c>
       <c r="I13">
-        <v>0.9979539706978038</v>
+        <v>1.058628076440982</v>
       </c>
       <c r="J13">
-        <v>0.9968323812379528</v>
+        <v>0.8375597116533459</v>
       </c>
       <c r="K13">
-        <v>0.99716333994101</v>
+        <v>0.9796423669475254</v>
       </c>
       <c r="L13">
-        <v>0.9997666232800273</v>
+        <v>0.9384026335734392</v>
       </c>
       <c r="M13">
-        <v>0.9983398488346071</v>
+        <v>1.029527383357457</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.009065304939829</v>
+        <v>0.4098799999999996</v>
       </c>
       <c r="D14">
-        <v>0.9238827498490515</v>
+        <v>2.676939999999998</v>
       </c>
       <c r="E14">
-        <v>1.021376850738965</v>
+        <v>0.7655640000000008</v>
       </c>
       <c r="F14">
-        <v>1.009065304939829</v>
+        <v>0.4098799999999996</v>
       </c>
       <c r="G14">
-        <v>0.9613229193051027</v>
+        <v>1.660747999999999</v>
       </c>
       <c r="H14">
-        <v>1.053181936155244</v>
+        <v>0.6905200000000008</v>
       </c>
       <c r="I14">
-        <v>1.01805788233198</v>
+        <v>0.6622120000000002</v>
       </c>
       <c r="J14">
-        <v>0.9238827498490515</v>
+        <v>2.676939999999998</v>
       </c>
       <c r="K14">
-        <v>0.9726298002940084</v>
+        <v>1.721251999999999</v>
       </c>
       <c r="L14">
-        <v>0.9908475526169185</v>
+        <v>1.065566</v>
       </c>
       <c r="M14">
-        <v>0.9978146072200289</v>
+        <v>1.144310666666666</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.070435413118163</v>
+        <v>0.21</v>
       </c>
       <c r="D15">
-        <v>0.7799004403768165</v>
+        <v>3.943749999999998</v>
       </c>
       <c r="E15">
-        <v>1.045212191025093</v>
+        <v>0.4708249999999997</v>
       </c>
       <c r="F15">
-        <v>1.070435413118163</v>
+        <v>0.21</v>
       </c>
       <c r="G15">
-        <v>0.8566688783650744</v>
+        <v>2.226525000000006</v>
       </c>
       <c r="H15">
-        <v>1.165872670670855</v>
+        <v>0.09</v>
       </c>
       <c r="I15">
-        <v>1.060011041312181</v>
+        <v>0.3901374999999999</v>
       </c>
       <c r="J15">
-        <v>0.7799004403768165</v>
+        <v>3.943749999999998</v>
       </c>
       <c r="K15">
-        <v>0.9125563157009546</v>
+        <v>2.207287499999999</v>
       </c>
       <c r="L15">
-        <v>0.9914958644095591</v>
+        <v>1.208643749999999</v>
       </c>
       <c r="M15">
-        <v>0.9963501058113639</v>
+        <v>1.221872916666667</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9957675914803306</v>
+        <v>0.5393775075328011</v>
       </c>
       <c r="D16">
-        <v>1.64344820480699</v>
+        <v>2.7075072709632</v>
       </c>
       <c r="E16">
-        <v>0.8079618251480029</v>
+        <v>0.6887782353920021</v>
       </c>
       <c r="F16">
-        <v>0.9957675914803306</v>
+        <v>0.5393775075328011</v>
       </c>
       <c r="G16">
-        <v>1.280637724328747</v>
+        <v>1.709626449715204</v>
       </c>
       <c r="H16">
-        <v>0.6227848949555937</v>
+        <v>0.4657496401920017</v>
       </c>
       <c r="I16">
-        <v>0.8534831158739909</v>
+        <v>0.647105608806401</v>
       </c>
       <c r="J16">
-        <v>1.64344820480699</v>
+        <v>2.7075072709632</v>
       </c>
       <c r="K16">
-        <v>1.225705014977496</v>
+        <v>1.698142753177601</v>
       </c>
       <c r="L16">
-        <v>1.110736303228913</v>
+        <v>1.118760130355201</v>
       </c>
       <c r="M16">
-        <v>1.034013892765609</v>
+        <v>1.126357452100268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1.002369906619044</v>
+      </c>
+      <c r="D17">
+        <v>0.9968323812379528</v>
+      </c>
+      <c r="E17">
+        <v>0.9974942986440674</v>
+      </c>
+      <c r="F17">
+        <v>1.002369906619044</v>
+      </c>
+      <c r="G17">
+        <v>1.001377398684539</v>
+      </c>
+      <c r="H17">
+        <v>0.9940111371242357</v>
+      </c>
+      <c r="I17">
+        <v>0.9979539706978038</v>
+      </c>
+      <c r="J17">
+        <v>0.9968323812379528</v>
+      </c>
+      <c r="K17">
+        <v>0.99716333994101</v>
+      </c>
+      <c r="L17">
+        <v>0.9997666232800273</v>
+      </c>
+      <c r="M17">
+        <v>0.9983398488346071</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.009065304939829</v>
+      </c>
+      <c r="D18">
+        <v>0.9238827498490515</v>
+      </c>
+      <c r="E18">
+        <v>1.021376850738965</v>
+      </c>
+      <c r="F18">
+        <v>1.009065304939829</v>
+      </c>
+      <c r="G18">
+        <v>0.9613229193051027</v>
+      </c>
+      <c r="H18">
+        <v>1.053181936155244</v>
+      </c>
+      <c r="I18">
+        <v>1.01805788233198</v>
+      </c>
+      <c r="J18">
+        <v>0.9238827498490515</v>
+      </c>
+      <c r="K18">
+        <v>0.9726298002940084</v>
+      </c>
+      <c r="L18">
+        <v>0.9908475526169185</v>
+      </c>
+      <c r="M18">
+        <v>0.9978146072200289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.070435413118163</v>
+      </c>
+      <c r="D19">
+        <v>0.7799004403768165</v>
+      </c>
+      <c r="E19">
+        <v>1.045212191025093</v>
+      </c>
+      <c r="F19">
+        <v>1.070435413118163</v>
+      </c>
+      <c r="G19">
+        <v>0.8566688783650744</v>
+      </c>
+      <c r="H19">
+        <v>1.165872670670855</v>
+      </c>
+      <c r="I19">
+        <v>1.060011041312181</v>
+      </c>
+      <c r="J19">
+        <v>0.7799004403768165</v>
+      </c>
+      <c r="K19">
+        <v>0.9125563157009546</v>
+      </c>
+      <c r="L19">
+        <v>0.9914958644095591</v>
+      </c>
+      <c r="M19">
+        <v>0.9963501058113639</v>
       </c>
     </row>
   </sheetData>
